--- a/Proiect/Book.xlsx
+++ b/Proiect/Book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordu\Desktop\Facultate\RPA\proiectRPA\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\facultate\proiectRPA\proiectRPA\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455DD01-DD54-48AF-B42F-CD752B5C0F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACAA81-F55F-4500-B18F-74AE893FE560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -225,7 +223,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,7 +522,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,353 +592,61 @@
       <c r="A2" s="5">
         <v>2015</v>
       </c>
-      <c r="B2">
-        <v>53661</v>
-      </c>
-      <c r="C2">
-        <v>94274</v>
-      </c>
-      <c r="D2">
-        <v>9719</v>
-      </c>
-      <c r="E2">
-        <v>9561</v>
-      </c>
-      <c r="F2">
-        <v>43220</v>
-      </c>
-      <c r="G2">
-        <v>70490</v>
-      </c>
-      <c r="H2">
-        <v>13207</v>
-      </c>
-      <c r="I2">
-        <v>51277</v>
-      </c>
-      <c r="J2">
-        <v>17749</v>
-      </c>
-      <c r="K2">
-        <v>81497</v>
-      </c>
-      <c r="L2">
-        <v>81910</v>
-      </c>
-      <c r="M2">
-        <v>7637</v>
-      </c>
-      <c r="N2" s="2">
-        <v>51365</v>
-      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2016</v>
       </c>
-      <c r="B3">
-        <v>97609</v>
-      </c>
-      <c r="C3">
-        <v>82806</v>
-      </c>
-      <c r="D3">
-        <v>95048</v>
-      </c>
-      <c r="E3">
-        <v>91711</v>
-      </c>
-      <c r="F3">
-        <v>44471</v>
-      </c>
-      <c r="G3">
-        <v>38191</v>
-      </c>
-      <c r="H3">
-        <v>51861</v>
-      </c>
-      <c r="I3">
-        <v>7666</v>
-      </c>
-      <c r="J3">
-        <v>68885</v>
-      </c>
-      <c r="K3">
-        <v>28398</v>
-      </c>
-      <c r="L3">
-        <v>6291</v>
-      </c>
-      <c r="M3">
-        <v>76229</v>
-      </c>
-      <c r="N3" s="2">
-        <v>19020</v>
-      </c>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2017</v>
       </c>
-      <c r="B4">
-        <v>92377</v>
-      </c>
-      <c r="C4">
-        <v>93875</v>
-      </c>
-      <c r="D4">
-        <v>10848</v>
-      </c>
-      <c r="E4">
-        <v>28188</v>
-      </c>
-      <c r="F4">
-        <v>14053</v>
-      </c>
-      <c r="G4">
-        <v>68642</v>
-      </c>
-      <c r="H4">
-        <v>51904</v>
-      </c>
-      <c r="I4">
-        <v>36298</v>
-      </c>
-      <c r="J4">
-        <v>10080</v>
-      </c>
-      <c r="K4">
-        <v>84897</v>
-      </c>
-      <c r="L4">
-        <v>65015</v>
-      </c>
-      <c r="M4">
-        <v>63808</v>
-      </c>
-      <c r="N4" s="2">
-        <v>42805</v>
-      </c>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
-      <c r="B5">
-        <v>19343</v>
-      </c>
-      <c r="C5">
-        <v>23299</v>
-      </c>
-      <c r="D5">
-        <v>12058</v>
-      </c>
-      <c r="E5">
-        <v>74382</v>
-      </c>
-      <c r="F5">
-        <v>94679</v>
-      </c>
-      <c r="G5">
-        <v>57963</v>
-      </c>
-      <c r="H5">
-        <v>62805</v>
-      </c>
-      <c r="I5">
-        <v>8784</v>
-      </c>
-      <c r="J5">
-        <v>56526</v>
-      </c>
-      <c r="K5">
-        <v>83635</v>
-      </c>
-      <c r="L5">
-        <v>56246</v>
-      </c>
-      <c r="M5">
-        <v>28584</v>
-      </c>
-      <c r="N5" s="2">
-        <v>22366</v>
-      </c>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2019</v>
       </c>
-      <c r="B6">
-        <v>94812</v>
-      </c>
-      <c r="C6">
-        <v>92439</v>
-      </c>
-      <c r="D6">
-        <v>73680</v>
-      </c>
-      <c r="E6">
-        <v>71303</v>
-      </c>
-      <c r="F6">
-        <v>92339</v>
-      </c>
-      <c r="G6">
-        <v>46050</v>
-      </c>
-      <c r="H6">
-        <v>28690</v>
-      </c>
-      <c r="I6">
-        <v>24254</v>
-      </c>
-      <c r="J6">
-        <v>63483</v>
-      </c>
-      <c r="K6">
-        <v>35015</v>
-      </c>
-      <c r="L6">
-        <v>54918</v>
-      </c>
-      <c r="M6">
-        <v>98967</v>
-      </c>
-      <c r="N6" s="2">
-        <v>23997</v>
-      </c>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2020</v>
       </c>
-      <c r="B7">
-        <v>33801</v>
-      </c>
-      <c r="C7">
-        <v>29687</v>
-      </c>
-      <c r="D7">
-        <v>97658</v>
-      </c>
-      <c r="E7">
-        <v>95271</v>
-      </c>
-      <c r="F7">
-        <v>85309</v>
-      </c>
-      <c r="G7">
-        <v>50297</v>
-      </c>
-      <c r="H7">
-        <v>30784</v>
-      </c>
-      <c r="I7">
-        <v>28751</v>
-      </c>
-      <c r="J7">
-        <v>31791</v>
-      </c>
-      <c r="K7">
-        <v>16397</v>
-      </c>
-      <c r="L7">
-        <v>88821</v>
-      </c>
-      <c r="M7">
-        <v>73233</v>
-      </c>
-      <c r="N7" s="2">
-        <v>52286</v>
-      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="B8">
-        <v>82034</v>
-      </c>
-      <c r="C8">
-        <v>67626</v>
-      </c>
-      <c r="D8">
-        <v>59222</v>
-      </c>
-      <c r="E8">
-        <v>63627</v>
-      </c>
-      <c r="F8">
-        <v>94583</v>
-      </c>
-      <c r="G8">
-        <v>94660</v>
-      </c>
-      <c r="H8">
-        <v>93544</v>
-      </c>
-      <c r="I8">
-        <v>13009</v>
-      </c>
-      <c r="J8">
-        <v>87646</v>
-      </c>
-      <c r="K8">
-        <v>13428</v>
-      </c>
-      <c r="L8">
-        <v>51805</v>
-      </c>
-      <c r="M8">
-        <v>22277</v>
-      </c>
-      <c r="N8" s="2">
-        <v>21258</v>
-      </c>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2022</v>
       </c>
-      <c r="B9" s="7">
-        <v>87142</v>
-      </c>
-      <c r="C9" s="7">
-        <v>51384</v>
-      </c>
-      <c r="D9" s="7">
-        <v>11236</v>
-      </c>
-      <c r="E9" s="7">
-        <v>63681</v>
-      </c>
-      <c r="F9" s="7">
-        <v>75474</v>
-      </c>
-      <c r="G9" s="7">
-        <v>26524</v>
-      </c>
-      <c r="H9" s="7">
-        <v>96017</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65310</v>
-      </c>
-      <c r="J9" s="7">
-        <v>32117</v>
-      </c>
-      <c r="K9" s="7">
-        <v>19081</v>
-      </c>
-      <c r="L9" s="7">
-        <v>34257</v>
-      </c>
-      <c r="M9" s="7">
-        <v>37292</v>
-      </c>
-      <c r="N9" s="3">
-        <v>27952</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Proiect/Book.xlsx
+++ b/Proiect/Book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\facultate\proiectRPA\proiectRPA\Proiect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cordu\Desktop\Facultate\RPA\proiectRPA\Proiect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ACAA81-F55F-4500-B18F-74AE893FE560}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2455DD01-DD54-48AF-B42F-CD752B5C0F42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -223,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,7 +524,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,61 +594,353 @@
       <c r="A2" s="5">
         <v>2015</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="B2">
+        <v>53661</v>
+      </c>
+      <c r="C2">
+        <v>94274</v>
+      </c>
+      <c r="D2">
+        <v>9719</v>
+      </c>
+      <c r="E2">
+        <v>9561</v>
+      </c>
+      <c r="F2">
+        <v>43220</v>
+      </c>
+      <c r="G2">
+        <v>70490</v>
+      </c>
+      <c r="H2">
+        <v>13207</v>
+      </c>
+      <c r="I2">
+        <v>51277</v>
+      </c>
+      <c r="J2">
+        <v>17749</v>
+      </c>
+      <c r="K2">
+        <v>81497</v>
+      </c>
+      <c r="L2">
+        <v>81910</v>
+      </c>
+      <c r="M2">
+        <v>7637</v>
+      </c>
+      <c r="N2" s="2">
+        <v>51365</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2016</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="B3">
+        <v>97609</v>
+      </c>
+      <c r="C3">
+        <v>82806</v>
+      </c>
+      <c r="D3">
+        <v>95048</v>
+      </c>
+      <c r="E3">
+        <v>91711</v>
+      </c>
+      <c r="F3">
+        <v>44471</v>
+      </c>
+      <c r="G3">
+        <v>38191</v>
+      </c>
+      <c r="H3">
+        <v>51861</v>
+      </c>
+      <c r="I3">
+        <v>7666</v>
+      </c>
+      <c r="J3">
+        <v>68885</v>
+      </c>
+      <c r="K3">
+        <v>28398</v>
+      </c>
+      <c r="L3">
+        <v>6291</v>
+      </c>
+      <c r="M3">
+        <v>76229</v>
+      </c>
+      <c r="N3" s="2">
+        <v>19020</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2017</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="B4">
+        <v>92377</v>
+      </c>
+      <c r="C4">
+        <v>93875</v>
+      </c>
+      <c r="D4">
+        <v>10848</v>
+      </c>
+      <c r="E4">
+        <v>28188</v>
+      </c>
+      <c r="F4">
+        <v>14053</v>
+      </c>
+      <c r="G4">
+        <v>68642</v>
+      </c>
+      <c r="H4">
+        <v>51904</v>
+      </c>
+      <c r="I4">
+        <v>36298</v>
+      </c>
+      <c r="J4">
+        <v>10080</v>
+      </c>
+      <c r="K4">
+        <v>84897</v>
+      </c>
+      <c r="L4">
+        <v>65015</v>
+      </c>
+      <c r="M4">
+        <v>63808</v>
+      </c>
+      <c r="N4" s="2">
+        <v>42805</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2018</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="B5">
+        <v>19343</v>
+      </c>
+      <c r="C5">
+        <v>23299</v>
+      </c>
+      <c r="D5">
+        <v>12058</v>
+      </c>
+      <c r="E5">
+        <v>74382</v>
+      </c>
+      <c r="F5">
+        <v>94679</v>
+      </c>
+      <c r="G5">
+        <v>57963</v>
+      </c>
+      <c r="H5">
+        <v>62805</v>
+      </c>
+      <c r="I5">
+        <v>8784</v>
+      </c>
+      <c r="J5">
+        <v>56526</v>
+      </c>
+      <c r="K5">
+        <v>83635</v>
+      </c>
+      <c r="L5">
+        <v>56246</v>
+      </c>
+      <c r="M5">
+        <v>28584</v>
+      </c>
+      <c r="N5" s="2">
+        <v>22366</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2019</v>
       </c>
-      <c r="N6" s="2"/>
+      <c r="B6">
+        <v>94812</v>
+      </c>
+      <c r="C6">
+        <v>92439</v>
+      </c>
+      <c r="D6">
+        <v>73680</v>
+      </c>
+      <c r="E6">
+        <v>71303</v>
+      </c>
+      <c r="F6">
+        <v>92339</v>
+      </c>
+      <c r="G6">
+        <v>46050</v>
+      </c>
+      <c r="H6">
+        <v>28690</v>
+      </c>
+      <c r="I6">
+        <v>24254</v>
+      </c>
+      <c r="J6">
+        <v>63483</v>
+      </c>
+      <c r="K6">
+        <v>35015</v>
+      </c>
+      <c r="L6">
+        <v>54918</v>
+      </c>
+      <c r="M6">
+        <v>98967</v>
+      </c>
+      <c r="N6" s="2">
+        <v>23997</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2020</v>
       </c>
-      <c r="N7" s="2"/>
+      <c r="B7">
+        <v>33801</v>
+      </c>
+      <c r="C7">
+        <v>29687</v>
+      </c>
+      <c r="D7">
+        <v>97658</v>
+      </c>
+      <c r="E7">
+        <v>95271</v>
+      </c>
+      <c r="F7">
+        <v>85309</v>
+      </c>
+      <c r="G7">
+        <v>50297</v>
+      </c>
+      <c r="H7">
+        <v>30784</v>
+      </c>
+      <c r="I7">
+        <v>28751</v>
+      </c>
+      <c r="J7">
+        <v>31791</v>
+      </c>
+      <c r="K7">
+        <v>16397</v>
+      </c>
+      <c r="L7">
+        <v>88821</v>
+      </c>
+      <c r="M7">
+        <v>73233</v>
+      </c>
+      <c r="N7" s="2">
+        <v>52286</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2021</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="B8">
+        <v>82034</v>
+      </c>
+      <c r="C8">
+        <v>67626</v>
+      </c>
+      <c r="D8">
+        <v>59222</v>
+      </c>
+      <c r="E8">
+        <v>63627</v>
+      </c>
+      <c r="F8">
+        <v>94583</v>
+      </c>
+      <c r="G8">
+        <v>94660</v>
+      </c>
+      <c r="H8">
+        <v>93544</v>
+      </c>
+      <c r="I8">
+        <v>13009</v>
+      </c>
+      <c r="J8">
+        <v>87646</v>
+      </c>
+      <c r="K8">
+        <v>13428</v>
+      </c>
+      <c r="L8">
+        <v>51805</v>
+      </c>
+      <c r="M8">
+        <v>22277</v>
+      </c>
+      <c r="N8" s="2">
+        <v>21258</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>2022</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="7">
+        <v>87142</v>
+      </c>
+      <c r="C9" s="7">
+        <v>51384</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11236</v>
+      </c>
+      <c r="E9" s="7">
+        <v>63681</v>
+      </c>
+      <c r="F9" s="7">
+        <v>75474</v>
+      </c>
+      <c r="G9" s="7">
+        <v>26524</v>
+      </c>
+      <c r="H9" s="7">
+        <v>96017</v>
+      </c>
+      <c r="I9" s="7">
+        <v>65310</v>
+      </c>
+      <c r="J9" s="7">
+        <v>32117</v>
+      </c>
+      <c r="K9" s="7">
+        <v>19081</v>
+      </c>
+      <c r="L9" s="7">
+        <v>34257</v>
+      </c>
+      <c r="M9" s="7">
+        <v>37292</v>
+      </c>
+      <c r="N9" s="3">
+        <v>27952</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
